--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.408091666666667</v>
+        <v>7.714752999999999</v>
       </c>
       <c r="H2">
-        <v>7.224275</v>
+        <v>23.144259</v>
       </c>
       <c r="I2">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="J2">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N2">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P2">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q2">
-        <v>7.361798706991666</v>
+        <v>14.039747250321</v>
       </c>
       <c r="R2">
-        <v>66.25618836292499</v>
+        <v>126.357725252889</v>
       </c>
       <c r="S2">
-        <v>9.226877885876114E-05</v>
+        <v>0.0001592413210225079</v>
       </c>
       <c r="T2">
-        <v>9.226877885876114E-05</v>
+        <v>0.0001592413210225079</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.408091666666667</v>
+        <v>7.714752999999999</v>
       </c>
       <c r="H3">
-        <v>7.224275</v>
+        <v>23.144259</v>
       </c>
       <c r="I3">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="J3">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P3">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q3">
-        <v>214.3865253396666</v>
+        <v>686.8256355926799</v>
       </c>
       <c r="R3">
-        <v>1929.478728057</v>
+        <v>6181.43072033412</v>
       </c>
       <c r="S3">
-        <v>0.0026870040440086</v>
+        <v>0.00779009903624877</v>
       </c>
       <c r="T3">
-        <v>0.0026870040440086</v>
+        <v>0.00779009903624877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.408091666666667</v>
+        <v>7.714752999999999</v>
       </c>
       <c r="H4">
-        <v>7.224275</v>
+        <v>23.144259</v>
       </c>
       <c r="I4">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="J4">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N4">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P4">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q4">
-        <v>50.97845132967222</v>
+        <v>243.2403014493043</v>
       </c>
       <c r="R4">
-        <v>458.80606196705</v>
+        <v>2189.162713043739</v>
       </c>
       <c r="S4">
-        <v>0.0006389361675744293</v>
+        <v>0.002758874945402928</v>
       </c>
       <c r="T4">
-        <v>0.0006389361675744292</v>
+        <v>0.002758874945402927</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.408091666666667</v>
+        <v>7.714752999999999</v>
       </c>
       <c r="H5">
-        <v>7.224275</v>
+        <v>23.144259</v>
       </c>
       <c r="I5">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="J5">
-        <v>0.003423762576085582</v>
+        <v>0.01072102934448851</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N5">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P5">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q5">
-        <v>0.4431009071249999</v>
+        <v>1.129769001994666</v>
       </c>
       <c r="R5">
-        <v>3.987908164124999</v>
+        <v>10.167921017952</v>
       </c>
       <c r="S5">
-        <v>5.553585643791681E-06</v>
+        <v>1.281404181430671E-05</v>
       </c>
       <c r="T5">
-        <v>5.55358564379168E-06</v>
+        <v>1.281404181430671E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>2080.702514</v>
       </c>
       <c r="I6">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234916</v>
       </c>
       <c r="J6">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234914</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N6">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P6">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q6">
-        <v>2120.311460624008</v>
+        <v>1262.193678340166</v>
       </c>
       <c r="R6">
-        <v>19082.80314561608</v>
+        <v>11359.74310506149</v>
       </c>
       <c r="S6">
-        <v>0.02657483001894783</v>
+        <v>0.0143160261464501</v>
       </c>
       <c r="T6">
-        <v>0.02657483001894783</v>
+        <v>0.0143160261464501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>2080.702514</v>
       </c>
       <c r="I7">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234916</v>
       </c>
       <c r="J7">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234914</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P7">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q7">
         <v>61746.62263576193</v>
@@ -883,10 +883,10 @@
         <v>555719.6037218574</v>
       </c>
       <c r="S7">
-        <v>0.7738985669145847</v>
+        <v>0.7003412228074267</v>
       </c>
       <c r="T7">
-        <v>0.7738985669145847</v>
+        <v>0.7003412228074266</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>2080.702514</v>
       </c>
       <c r="I8">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234916</v>
       </c>
       <c r="J8">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234914</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N8">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P8">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q8">
-        <v>14682.57947565335</v>
+        <v>21867.65654202562</v>
       </c>
       <c r="R8">
-        <v>132143.2152808802</v>
+        <v>196808.9088782305</v>
       </c>
       <c r="S8">
-        <v>0.1840234611995861</v>
+        <v>0.2480268663909907</v>
       </c>
       <c r="T8">
-        <v>0.1840234611995861</v>
+        <v>0.2480268663909906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>2080.702514</v>
       </c>
       <c r="I9">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234916</v>
       </c>
       <c r="J9">
-        <v>0.9860963763700007</v>
+        <v>0.9638361163234914</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N9">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P9">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q9">
-        <v>127.61988869619</v>
+        <v>101.5678748967324</v>
       </c>
       <c r="R9">
-        <v>1148.57899826571</v>
+        <v>914.1108740705919</v>
       </c>
       <c r="S9">
-        <v>0.001599518236882131</v>
+        <v>0.001152000978624077</v>
       </c>
       <c r="T9">
-        <v>0.001599518236882131</v>
+        <v>0.001152000978624077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.402408666666666</v>
+        <v>15.35226833333333</v>
       </c>
       <c r="H10">
-        <v>16.207226</v>
+        <v>46.056805</v>
       </c>
       <c r="I10">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="J10">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N10">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P10">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q10">
-        <v>16.51575215654466</v>
+        <v>27.938932992295</v>
       </c>
       <c r="R10">
-        <v>148.641769408902</v>
+        <v>251.450396930655</v>
       </c>
       <c r="S10">
-        <v>0.0002069994500081965</v>
+        <v>0.0003168883683109512</v>
       </c>
       <c r="T10">
-        <v>0.0002069994500081965</v>
+        <v>0.0003168883683109512</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.402408666666666</v>
+        <v>15.35226833333333</v>
       </c>
       <c r="H11">
-        <v>16.207226</v>
+        <v>46.056805</v>
       </c>
       <c r="I11">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="J11">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P11">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q11">
-        <v>480.9632617161866</v>
+        <v>1366.774990181933</v>
       </c>
       <c r="R11">
-        <v>4328.66935544568</v>
+        <v>12300.9749116374</v>
       </c>
       <c r="S11">
-        <v>0.006028131792347513</v>
+        <v>0.01550220606514979</v>
       </c>
       <c r="T11">
-        <v>0.006028131792347513</v>
+        <v>0.01550220606514979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.402408666666666</v>
+        <v>15.35226833333333</v>
       </c>
       <c r="H12">
-        <v>16.207226</v>
+        <v>46.056805</v>
       </c>
       <c r="I12">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="J12">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N12">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P12">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q12">
-        <v>114.3670862238769</v>
+        <v>484.0453579434894</v>
       </c>
       <c r="R12">
-        <v>1029.303776014892</v>
+        <v>4356.408221491405</v>
       </c>
       <c r="S12">
-        <v>0.0014334148225881</v>
+        <v>0.005490128907553632</v>
       </c>
       <c r="T12">
-        <v>0.0014334148225881</v>
+        <v>0.005490128907553631</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.402408666666666</v>
+        <v>15.35226833333333</v>
       </c>
       <c r="H13">
-        <v>16.207226</v>
+        <v>46.056805</v>
       </c>
       <c r="I13">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="J13">
-        <v>0.007681005199962796</v>
+        <v>0.02133472313450974</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N13">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P13">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q13">
-        <v>0.9940702067099998</v>
+        <v>2.248227114115556</v>
       </c>
       <c r="R13">
-        <v>8.946631860389997</v>
+        <v>20.23404402704</v>
       </c>
       <c r="S13">
-        <v>1.24591350189863E-05</v>
+        <v>2.549979349537053E-05</v>
       </c>
       <c r="T13">
-        <v>1.24591350189863E-05</v>
+        <v>2.549979349537053E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.968565666666667</v>
+        <v>2.956173</v>
       </c>
       <c r="H14">
-        <v>5.905697</v>
+        <v>8.868519000000001</v>
       </c>
       <c r="I14">
-        <v>0.002798855853950866</v>
+        <v>0.004108131197510101</v>
       </c>
       <c r="J14">
-        <v>0.002798855853950866</v>
+        <v>0.0041081311975101</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.057109</v>
+        <v>1.819857</v>
       </c>
       <c r="N14">
-        <v>9.171327</v>
+        <v>5.459571</v>
       </c>
       <c r="O14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="P14">
-        <v>0.02694952608666365</v>
+        <v>0.01485317462584607</v>
       </c>
       <c r="Q14">
-        <v>6.018119816657666</v>
+        <v>5.379812127261</v>
       </c>
       <c r="R14">
-        <v>54.163078349919</v>
+        <v>48.41830914534901</v>
       </c>
       <c r="S14">
-        <v>7.542783884886015E-05</v>
+        <v>6.101879006250365E-05</v>
       </c>
       <c r="T14">
-        <v>7.542783884886015E-05</v>
+        <v>6.101879006250364E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.968565666666667</v>
+        <v>2.956173</v>
       </c>
       <c r="H15">
-        <v>5.905697</v>
+        <v>8.868519000000001</v>
       </c>
       <c r="I15">
-        <v>0.002798855853950866</v>
+        <v>0.004108131197510101</v>
       </c>
       <c r="J15">
-        <v>0.002798855853950866</v>
+        <v>0.0041081311975101</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>267.08268</v>
       </c>
       <c r="O15">
-        <v>0.7848102735793893</v>
+        <v>0.726618572334523</v>
       </c>
       <c r="P15">
-        <v>0.7848102735793893</v>
+        <v>0.7266185723345231</v>
       </c>
       <c r="Q15">
-        <v>175.2565980031067</v>
+        <v>263.18086912788</v>
       </c>
       <c r="R15">
-        <v>1577.30938202796</v>
+        <v>2368.62782215092</v>
       </c>
       <c r="S15">
-        <v>0.002196570828448454</v>
+        <v>0.002985044425697704</v>
       </c>
       <c r="T15">
-        <v>0.002196570828448454</v>
+        <v>0.002985044425697704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.968565666666667</v>
+        <v>2.956173</v>
       </c>
       <c r="H16">
-        <v>5.905697</v>
+        <v>8.868519000000001</v>
       </c>
       <c r="I16">
-        <v>0.002798855853950866</v>
+        <v>0.004108131197510101</v>
       </c>
       <c r="J16">
-        <v>0.002798855853950866</v>
+        <v>0.0041081311975101</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.16964733333333</v>
+        <v>31.52924033333333</v>
       </c>
       <c r="N16">
-        <v>63.508942</v>
+        <v>94.58772099999999</v>
       </c>
       <c r="O16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="P16">
-        <v>0.1866181294337677</v>
+        <v>0.257333028084772</v>
       </c>
       <c r="Q16">
-        <v>41.67384091584156</v>
+        <v>93.205888983911</v>
       </c>
       <c r="R16">
-        <v>375.064568242574</v>
+        <v>838.853000855199</v>
       </c>
       <c r="S16">
-        <v>0.0005223172440190614</v>
+        <v>0.001057157840824795</v>
       </c>
       <c r="T16">
-        <v>0.0005223172440190613</v>
+        <v>0.001057157840824795</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.968565666666667</v>
+        <v>2.956173</v>
       </c>
       <c r="H17">
-        <v>5.905697</v>
+        <v>8.868519000000001</v>
       </c>
       <c r="I17">
-        <v>0.002798855853950866</v>
+        <v>0.004108131197510101</v>
       </c>
       <c r="J17">
-        <v>0.002798855853950866</v>
+        <v>0.0041081311975101</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.184005</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N17">
-        <v>0.5520149999999999</v>
+        <v>0.439328</v>
       </c>
       <c r="O17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="P17">
-        <v>0.0016220709001794</v>
+        <v>0.001195224954858853</v>
       </c>
       <c r="Q17">
-        <v>0.3622259254949999</v>
+        <v>0.432909857248</v>
       </c>
       <c r="R17">
-        <v>3.260033329455</v>
+        <v>3.896188715232</v>
       </c>
       <c r="S17">
-        <v>4.539942634490465E-06</v>
+        <v>4.910140925098255E-06</v>
       </c>
       <c r="T17">
-        <v>4.539942634490464E-06</v>
+        <v>4.910140925098254E-06</v>
       </c>
     </row>
   </sheetData>
